--- a/@tech/FS/Grafico 5 - Proteina/db_br30.xlsx
+++ b/@tech/FS/Grafico 5 - Proteina/db_br30.xlsx
@@ -25,10 +25,10 @@
     <t xml:space="preserve">date</t>
   </si>
   <si>
-    <t xml:space="preserve">value</t>
+    <t xml:space="preserve">animal_protein</t>
   </si>
   <si>
-    <t xml:space="preserve">liter</t>
+    <t xml:space="preserve">ethanol_liter</t>
   </si>
 </sst>
 </file>
@@ -225,12 +225,15 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.78"/>
+  </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -245,7 +248,7 @@
       <c r="A2" s="3" t="n">
         <v>2014</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="3" t="n">
         <v>260.8</v>
       </c>
       <c r="C2" s="3" t="n">
@@ -256,7 +259,7 @@
       <c r="A3" s="3" t="n">
         <v>2015</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="3" t="n">
         <v>258.9</v>
       </c>
       <c r="C3" s="3" t="n">
@@ -267,7 +270,7 @@
       <c r="A4" s="3" t="n">
         <v>2016</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="3" t="n">
         <v>257.39</v>
       </c>
       <c r="C4" s="3" t="n">
